--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="1052">
   <si>
     <t>anchor score</t>
   </si>
@@ -490,448 +490,448 @@
     <t>problem</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>stocked</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>behaviors</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>stocked</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>behaviors</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>hazard</t>
   </si>
   <si>
     <t>best</t>
@@ -3538,7 +3538,7 @@
         <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3596,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02676272632646115</v>
+        <v>0.02715225308127229</v>
       </c>
       <c r="C3">
         <v>136</v>
@@ -3617,28 +3617,28 @@
         <v>156</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="K3">
-        <v>0.004554542236168257</v>
+        <v>0.007664413157983582</v>
       </c>
       <c r="L3">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M3">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3646,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01974134592814811</v>
+        <v>0.02002867773138792</v>
       </c>
       <c r="C4">
         <v>74</v>
@@ -3667,28 +3667,28 @@
         <v>442</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>88</v>
+        <v>305</v>
       </c>
       <c r="K4">
-        <v>0.00430093709050436</v>
+        <v>0.007099098288709478</v>
       </c>
       <c r="L4">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="M4">
-        <v>378</v>
+        <v>157</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2729</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01000317114721924</v>
+        <v>0.0101487655364928</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -3717,28 +3717,28 @@
         <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
       <c r="K5">
-        <v>0.004163420179416835</v>
+        <v>0.004554542236168257</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3746,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009736371835896864</v>
+        <v>0.009878083008316607</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -3767,28 +3767,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>307</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>0.003842662823744281</v>
+        <v>0.00430093709050436</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3796,7 +3796,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009736371835896864</v>
+        <v>0.009878083008316607</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -3817,16 +3817,16 @@
         <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K7">
-        <v>0.003538226789688736</v>
+        <v>0.004163420179416835</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3846,7 +3846,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008274324997138887</v>
+        <v>0.008394756336049284</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3867,28 +3867,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="K8">
-        <v>0.003199248898620168</v>
+        <v>0.003842662823744281</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3896,7 +3896,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007257063093093273</v>
+        <v>0.007362688364660519</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -3917,16 +3917,16 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K9">
-        <v>0.002998005177924359</v>
+        <v>0.003538226789688736</v>
       </c>
       <c r="L9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>280</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3946,7 +3946,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006884654549316389</v>
+        <v>0.006984859480304285</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -3967,28 +3967,28 @@
         <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>310</v>
+        <v>171</v>
       </c>
       <c r="K10">
-        <v>0.002998005177924359</v>
+        <v>0.003199248898620168</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3996,7 +3996,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006884654549316389</v>
+        <v>0.006984859480304285</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -4017,16 +4017,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K11">
-        <v>0.002832848617882788</v>
+        <v>0.002998005177924359</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>108</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4046,7 +4046,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006071694600026879</v>
+        <v>0.006160067042538999</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -4067,16 +4067,16 @@
         <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K12">
-        <v>0.002832848617882788</v>
+        <v>0.002998005177924359</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4096,7 +4096,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006071694600026879</v>
+        <v>0.006160067042538999</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -4117,16 +4117,16 @@
         <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K13">
-        <v>0.002717172940483028</v>
+        <v>0.002832848617882788</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4146,7 +4146,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006071694600026879</v>
+        <v>0.006160067042538999</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -4167,16 +4167,16 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K14">
-        <v>0.002717172940483028</v>
+        <v>0.002832848617882788</v>
       </c>
       <c r="L14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>114</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4196,7 +4196,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005621296900385346</v>
+        <v>0.005703113883929061</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4217,28 +4217,28 @@
         <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="K15">
-        <v>0.002707659177822495</v>
+        <v>0.002717172940483028</v>
       </c>
       <c r="L15">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>404</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4246,7 +4246,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005621296900385346</v>
+        <v>0.005703113883929061</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4267,28 +4267,28 @@
         <v>18</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="K16">
-        <v>0.002705203079163588</v>
+        <v>0.002717172940483028</v>
       </c>
       <c r="L16">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2976</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4296,7 +4296,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005621296900385346</v>
+        <v>0.005703113883929061</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4317,28 +4317,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="K17">
-        <v>0.002657447560502289</v>
+        <v>0.002707659177822495</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4346,7 +4346,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005621296900385346</v>
+        <v>0.005703113883929061</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4367,28 +4367,28 @@
         <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>316</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.002657447560502289</v>
+        <v>0.002705203079163588</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>42</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4396,7 +4396,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005621296900385346</v>
+        <v>0.005703113883929061</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4417,28 +4417,28 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="K19">
-        <v>0.002618179626671246</v>
+        <v>0.002657447560502289</v>
       </c>
       <c r="L19">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="M19">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4446,7 +4446,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -4467,28 +4467,28 @@
         <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>160</v>
+        <v>316</v>
       </c>
       <c r="K20">
-        <v>0.002599472306226138</v>
+        <v>0.002657447560502289</v>
       </c>
       <c r="L20">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>741</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4496,7 +4496,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -4517,28 +4517,28 @@
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>317</v>
+        <v>161</v>
       </c>
       <c r="K21">
-        <v>0.002596348644759781</v>
+        <v>0.002618179626671246</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>246</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4546,7 +4546,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4567,28 +4567,28 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>318</v>
+        <v>158</v>
       </c>
       <c r="K22">
-        <v>0.002533776831820896</v>
+        <v>0.002599472306226138</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4596,7 +4596,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4617,16 +4617,16 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K23">
-        <v>0.002533776831820896</v>
+        <v>0.002596348644759781</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>95</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4646,7 +4646,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4667,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K24">
         <v>0.002533776831820896</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4696,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005131518524624875</v>
+        <v>0.005206206870414745</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4717,28 +4717,28 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="K25">
-        <v>0.002478331500153286</v>
+        <v>0.002533776831820896</v>
       </c>
       <c r="L25">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1875</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4746,7 +4746,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4767,16 +4767,16 @@
         <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K26">
-        <v>0.002469620169539988</v>
+        <v>0.002533776831820896</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>124</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4796,7 +4796,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4817,28 +4817,28 @@
         <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="K27">
-        <v>0.002469620169539988</v>
+        <v>0.002478331500153286</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4846,7 +4846,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -4867,28 +4867,28 @@
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="K28">
-        <v>0.002449810756649024</v>
+        <v>0.002469620169539988</v>
       </c>
       <c r="L28">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4896,7 +4896,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4917,28 +4917,28 @@
         <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>166</v>
+        <v>322</v>
       </c>
       <c r="K29">
-        <v>0.002449810756649024</v>
+        <v>0.002469620169539988</v>
       </c>
       <c r="L29">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4946,7 +4946,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4967,28 +4967,28 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K30">
-        <v>0.002360168083545008</v>
+        <v>0.002449810756649024</v>
       </c>
       <c r="L30">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="M30">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4996,7 +4996,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5017,28 +5017,28 @@
         <v>34</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="K31">
-        <v>0.002336026814583147</v>
+        <v>0.002449810756649024</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5046,7 +5046,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5067,7 +5067,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K32">
         <v>0.002336026814583147</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5096,7 +5096,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5117,7 +5117,7 @@
         <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K33">
         <v>0.002336026814583147</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>121</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5146,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5167,28 +5167,28 @@
         <v>2</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="K34">
-        <v>0.002284774789603876</v>
+        <v>0.002336026814583147</v>
       </c>
       <c r="L34">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>767</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5196,7 +5196,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5217,28 +5217,28 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>326</v>
+        <v>160</v>
       </c>
       <c r="K35">
-        <v>0.00226627889430623</v>
+        <v>0.002284774789603876</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>66</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5246,7 +5246,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5267,7 +5267,7 @@
         <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K36">
         <v>0.00226627889430623</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5296,7 +5296,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5317,28 +5317,28 @@
         <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="K37">
-        <v>0.002264458821314546</v>
+        <v>0.00226627889430623</v>
       </c>
       <c r="L37">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5346,7 +5346,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5367,28 +5367,28 @@
         <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K38">
-        <v>0.002223872181802977</v>
+        <v>0.002264458821314546</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M38">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="N38">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5396,7 +5396,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5417,28 +5417,28 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="K39">
-        <v>0.002194315103877347</v>
+        <v>0.002223872181802977</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>64</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5446,7 +5446,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5467,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K40">
         <v>0.002194315103877347</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5496,7 +5496,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5517,7 +5517,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K41">
         <v>0.002194315103877347</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5546,7 +5546,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004589769699544259</v>
+        <v>0.004656572986869523</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5567,16 +5567,16 @@
         <v>23</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K42">
-        <v>0.002119909791342696</v>
+        <v>0.002194315103877347</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5596,7 +5596,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -5617,7 +5617,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K43">
         <v>0.002119909791342696</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5646,7 +5646,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -5667,7 +5667,7 @@
         <v>18</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K44">
         <v>0.002119909791342696</v>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5696,7 +5696,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -5717,7 +5717,7 @@
         <v>22</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K45">
         <v>0.002119909791342696</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5746,7 +5746,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5767,16 +5767,16 @@
         <v>27</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K46">
-        <v>0.002042796189480737</v>
+        <v>0.002119909791342696</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5796,7 +5796,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5817,7 +5817,7 @@
         <v>28</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K47">
         <v>0.002042796189480737</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>103</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5846,7 +5846,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5867,28 +5867,28 @@
         <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="K48">
-        <v>0.001974926780474823</v>
+        <v>0.002042796189480737</v>
       </c>
       <c r="L48">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="N48">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>144</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5896,7 +5896,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5946,7 +5946,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5996,7 +5996,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -6046,7 +6046,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -6096,7 +6096,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -6146,7 +6146,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -6196,7 +6196,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -6246,7 +6246,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -6296,7 +6296,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003974857157325398</v>
+        <v>0.004032710501205388</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6346,7 +6346,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -6396,7 +6396,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -6446,7 +6446,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6546,7 +6546,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -6567,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K62">
         <v>0.001790952706734194</v>
@@ -6596,7 +6596,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -6646,7 +6646,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -6696,7 +6696,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -6746,7 +6746,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -6796,7 +6796,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -6846,7 +6846,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6896,7 +6896,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6946,7 +6946,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6996,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -7046,7 +7046,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -7096,7 +7096,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -7146,7 +7146,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7196,7 +7196,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7217,7 +7217,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K75">
         <v>0.001652892595961662</v>
@@ -7246,7 +7246,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7267,7 +7267,7 @@
         <v>29</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K76">
         <v>0.001620714668096886</v>
@@ -7296,7 +7296,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7317,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K77">
         <v>0.001606217049735031</v>
@@ -7346,7 +7346,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7396,7 +7396,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7446,7 +7446,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7546,7 +7546,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003245457278632289</v>
+        <v>0.003292694336105536</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7596,7 +7596,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003016018051875962</v>
+        <v>0.003059915661927651</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -7646,7 +7646,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002529453230787944</v>
+        <v>0.002566268975806463</v>
       </c>
       <c r="C84">
         <v>16</v>
@@ -7696,7 +7696,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002363133076872365</v>
+        <v>0.002397528061426343</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -7717,7 +7717,7 @@
         <v>2976</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K85">
         <v>0.001526330373198188</v>
@@ -7746,7 +7746,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -7796,7 +7796,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7996,7 +7996,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8046,7 +8046,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8146,7 +8146,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8246,7 +8246,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8467,7 +8467,7 @@
         <v>6</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K100">
         <v>0.001422149616576672</v>
@@ -8496,7 +8496,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8596,7 +8596,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8696,7 +8696,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8846,7 +8846,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9146,7 +9146,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9196,7 +9196,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>9</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K116">
         <v>0.001313837865156383</v>
@@ -9296,7 +9296,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9317,7 +9317,7 @@
         <v>19</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K117">
         <v>0.00128395092098435</v>
@@ -9346,7 +9346,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9446,7 +9446,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9696,7 +9696,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9746,7 +9746,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9996,7 +9996,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10146,7 +10146,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10196,7 +10196,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10346,7 +10346,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10396,7 +10396,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10446,7 +10446,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10496,7 +10496,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10546,7 +10546,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10646,7 +10646,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10696,7 +10696,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10746,7 +10746,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10796,7 +10796,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10846,7 +10846,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10896,7 +10896,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         <v>27</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K149">
         <v>0.001236729033395</v>
@@ -10946,7 +10946,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10967,7 +10967,7 @@
         <v>9</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K150">
         <v>0.001236434366427276</v>
@@ -10996,7 +10996,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11017,7 +11017,7 @@
         <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K151">
         <v>0.001236434366427276</v>
@@ -11046,7 +11046,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002294884849772129</v>
+        <v>0.002328286493434762</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11067,7 +11067,7 @@
         <v>29</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K152">
         <v>0.001213028345124766</v>
@@ -11096,28 +11096,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002132085743600629</v>
+        <v>0.00196346152432567</v>
       </c>
       <c r="C153">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E153">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>144</v>
+        <v>741</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K153">
         <v>0.001178390359541799</v>
@@ -11146,13 +11146,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002018597183082677</v>
+        <v>0.001912529839588221</v>
       </c>
       <c r="C154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E154">
         <v>0.96</v>
@@ -11164,10 +11164,10 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K154">
         <v>0.001177021173178023</v>
@@ -11196,25 +11196,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001935293666819412</v>
+        <v>0.001848487852718501</v>
       </c>
       <c r="C155">
         <v>5</v>
       </c>
       <c r="D155">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>429</v>
@@ -11246,25 +11246,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001885092649029324</v>
+        <v>0.001708321637269047</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E156">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>430</v>
@@ -11296,25 +11296,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001821969409758278</v>
+        <v>0.001603789714369946</v>
       </c>
       <c r="C157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E157">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>767</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>431</v>
@@ -11346,25 +11346,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001683814021582523</v>
+        <v>0.0015763237716689</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>432</v>
@@ -11396,25 +11396,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001580781715697862</v>
+        <v>0.001476349280166407</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>433</v>
@@ -11446,25 +11446,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001553709799949059</v>
+        <v>0.001476349280166407</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>434</v>
@@ -11496,25 +11496,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001455169544460879</v>
+        <v>0.00145708812095995</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="E161">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>435</v>
@@ -11546,25 +11546,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001455169544460879</v>
+        <v>0.001394052727706036</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E162">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>17</v>
+        <v>787</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>436</v>
@@ -11596,25 +11596,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001436184706221861</v>
+        <v>0.001366466203266506</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>217</v>
+        <v>343</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>437</v>
@@ -11646,25 +11646,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001374053619954882</v>
+        <v>0.001348694045397629</v>
       </c>
       <c r="C164">
         <v>5</v>
       </c>
       <c r="D164">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>787</v>
+        <v>574</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>438</v>
@@ -11696,25 +11696,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00134686285233558</v>
+        <v>0.001313115060918462</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D165">
         <v>73</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>439</v>
@@ -11746,25 +11746,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001329345654191773</v>
+        <v>0.001308188714047825</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E166">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F166">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>574</v>
+        <v>26</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>440</v>
@@ -11796,25 +11796,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001294277086521191</v>
+        <v>0.001290997772898818</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>441</v>
@@ -11846,25 +11846,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001289421413119303</v>
+        <v>0.00128871470630049</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E168">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F168">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>26</v>
+        <v>1086</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>442</v>
@@ -11896,25 +11896,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001272477093548914</v>
+        <v>0.00123633038740042</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E169">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F169">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>15</v>
+        <v>404</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>443</v>
@@ -11946,25 +11946,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001270226779868747</v>
+        <v>0.001221231767321201</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E170">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F170">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1086</v>
+        <v>508</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>444</v>
@@ -11996,25 +11996,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001218593967434201</v>
+        <v>0.001197616776272846</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E171">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>404</v>
+        <v>158</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>445</v>
@@ -12046,13 +12046,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.00120371195245453</v>
+        <v>0.001197616776272846</v>
       </c>
       <c r="C172">
         <v>3</v>
       </c>
       <c r="D172">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E172">
         <v>0.95</v>
@@ -12064,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>508</v>
+        <v>37</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>446</v>
@@ -12096,25 +12096,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001180435742530541</v>
+        <v>0.001035627081658232</v>
       </c>
       <c r="C173">
         <v>3</v>
       </c>
       <c r="D173">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>158</v>
+        <v>304</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>447</v>
@@ -12146,25 +12146,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001180435742530541</v>
+        <v>0.001024003289811869</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>448</v>
@@ -12196,25 +12196,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001020769955249407</v>
+        <v>0.001015676468607171</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E175">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F175">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>449</v>
@@ -12246,25 +12246,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001009312918548666</v>
+        <v>0.001004530990736679</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E176">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F176">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>450</v>
@@ -12296,25 +12296,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001001105554084152</v>
+        <v>0.0009720047862410436</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D177">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E177">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>451</v>
@@ -12346,25 +12346,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0009901199694576104</v>
+        <v>0.0009607878057056539</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E178">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F178">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>452</v>
@@ -12396,25 +12396,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0009580603865290904</v>
+        <v>0.0008953094287625766</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>453</v>
@@ -12446,13 +12446,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0009470043250162824</v>
+        <v>0.0008830935319069371</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E180">
         <v>0.97</v>
@@ -12464,7 +12464,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>454</v>
@@ -12496,13 +12496,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008824653021520212</v>
+        <v>0.0008573249742379473</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E181">
         <v>0.97</v>
@@ -12514,7 +12514,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>455</v>
@@ -12546,13 +12546,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008704246547920696</v>
+        <v>0.0008573249742379473</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E182">
         <v>0.97</v>
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>456</v>
@@ -12596,25 +12596,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0008450257733563899</v>
+        <v>0.0008266493410677103</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
         <v>29</v>
       </c>
       <c r="E183">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>457</v>
@@ -12646,25 +12646,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008450257733563899</v>
+        <v>0.0007829330003239979</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>458</v>
@@ -12696,25 +12696,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008147902134207687</v>
+        <v>0.0007658116369529891</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>459</v>
@@ -12746,25 +12746,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007717010281580817</v>
+        <v>0.0007440397825912169</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E186">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>460</v>
@@ -12796,25 +12796,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007548252882015238</v>
+        <v>0.0007309812938559309</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>461</v>
@@ -12846,25 +12846,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007333657732890923</v>
+        <v>0.0007153198025144356</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>8</v>
+        <v>517</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>462</v>
@@ -12896,13 +12896,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007204946218891119</v>
+        <v>0.0007117195423598593</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>0.95</v>
@@ -12914,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>463</v>
@@ -12946,25 +12946,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007050578106093225</v>
+        <v>0.0006914443681671393</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E190">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>517</v>
+        <v>115</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>464</v>
@@ -12996,13 +12996,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0007015091998574787</v>
+        <v>0.0006914443681671393</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E191">
         <v>0.95</v>
@@ -13014,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>465</v>
@@ -13046,25 +13046,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006815248937110634</v>
+        <v>0.000673484807570781</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>115</v>
+        <v>215</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>466</v>
@@ -13096,25 +13096,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006815248937110634</v>
+        <v>0.0006700539964954743</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>467</v>
@@ -13146,25 +13146,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006638229813229771</v>
+        <v>0.0006479998558120264</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>468</v>
@@ -13196,13 +13196,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006604413887305909</v>
+        <v>0.00062343933267394</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>0.9399999999999999</v>
@@ -13214,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>469</v>
@@ -13246,25 +13246,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006387036371815865</v>
+        <v>0.0005979195743754467</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>52</v>
+        <v>345</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>470</v>
@@ -13296,25 +13296,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006144954597897556</v>
+        <v>0.0005979195743754467</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>471</v>
@@ -13346,7 +13346,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005893418084439273</v>
+        <v>0.0005979195743754467</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>472</v>
@@ -13396,7 +13396,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005893418084439273</v>
+        <v>0.0005979195743754467</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13414,10 +13414,10 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K199">
         <v>0.001103929743687814</v>
@@ -13446,13 +13446,13 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005893418084439273</v>
+        <v>0.0005706842345164869</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E200">
         <v>0.93</v>
@@ -13464,10 +13464,10 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K200">
         <v>0.001103929743687814</v>
@@ -13496,13 +13496,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005893418084439273</v>
+        <v>0.0005706842345164869</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E201">
         <v>0.93</v>
@@ -13514,10 +13514,10 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K201">
         <v>0.001063463647252434</v>
@@ -13546,25 +13546,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005624971873043196</v>
+        <v>0.0005415106016010296</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E202">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F202">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>473</v>
@@ -13596,25 +13596,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005624971873043196</v>
+        <v>0.0005339970008475578</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>474</v>
@@ -13646,13 +13646,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.000533742079898388</v>
+        <v>0.0005101319026957222</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E204">
         <v>0.92</v>
@@ -13664,7 +13664,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>475</v>
@@ -13696,25 +13696,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005263362694085709</v>
+        <v>0.0005101319026957222</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>476</v>
@@ -13746,7 +13746,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005028135404225099</v>
+        <v>0.0005101319026957222</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13764,7 +13764,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>477</v>
@@ -13796,7 +13796,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005028135404225099</v>
+        <v>0.0005101319026957222</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13814,7 +13814,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>478</v>
@@ -13846,25 +13846,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005028135404225099</v>
+        <v>0.0004762256744594163</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>479</v>
@@ -13896,25 +13896,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005028135404225099</v>
+        <v>0.0004762256744594163</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F209">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>480</v>
@@ -13946,7 +13946,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004693937316009479</v>
+        <v>0.0004762256744594163</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13964,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>481</v>
@@ -13996,7 +13996,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004693937316009479</v>
+        <v>0.0004762256744594163</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -14014,7 +14014,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>482</v>
@@ -14046,7 +14046,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004693937316009479</v>
+        <v>0.0004762256744594163</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>483</v>
@@ -14096,25 +14096,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0004693937316009479</v>
+        <v>0.0004682340613304569</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E213">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F213">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>484</v>
@@ -14146,25 +14146,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0004693937316009479</v>
+        <v>0.0004682340613304569</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>485</v>
@@ -14196,25 +14196,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0004615167663105496</v>
+        <v>0.000432694993465765</v>
       </c>
       <c r="C215">
         <v>2</v>
       </c>
       <c r="D215">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F215">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>486</v>
@@ -14246,25 +14246,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004615167663105496</v>
+        <v>0.0004197853258635141</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D216">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E216">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="F216">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>28</v>
+        <v>933</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>487</v>
@@ -14296,25 +14296,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004264875426099096</v>
+        <v>0.0004014242190342012</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E217">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F217">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>488</v>
@@ -14346,25 +14346,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004137630773520735</v>
+        <v>0.0003991670059624854</v>
       </c>
       <c r="C218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>933</v>
+        <v>221</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>489</v>
@@ -14396,25 +14396,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003956653793211595</v>
+        <v>0.0003991670059624854</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>490</v>
@@ -14446,7 +14446,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003934405482724055</v>
+        <v>0.0003991670059624854</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14464,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>491</v>
@@ -14496,25 +14496,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003934405482724055</v>
+        <v>0.0003951718664008089</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>492</v>
@@ -14546,25 +14546,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003934405482724055</v>
+        <v>0.0003554941414256639</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F222">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>493</v>
@@ -14596,25 +14596,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003895027230611743</v>
+        <v>0.0003549332372890924</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="F223">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>494</v>
@@ -14646,25 +14646,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003503942155060937</v>
+        <v>0.0003549332372890924</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>495</v>
@@ -14696,7 +14696,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003498413581112575</v>
+        <v>0.0003549332372890924</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14714,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>496</v>
@@ -14746,7 +14746,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003498413581112575</v>
+        <v>0.0003549332372890924</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14764,7 +14764,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>497</v>
@@ -14796,7 +14796,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003498413581112575</v>
+        <v>0.0003549332372890924</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14814,7 +14814,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>498</v>
@@ -14846,25 +14846,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003498413581112575</v>
+        <v>0.0003059615640651113</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>499</v>
@@ -14896,25 +14896,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003498413581112575</v>
+        <v>0.0003059615640651113</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>500</v>
@@ -14946,7 +14946,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003015722334710537</v>
+        <v>0.0003059615640651113</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>501</v>
@@ -14996,7 +14996,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003015722334710537</v>
+        <v>0.0003059615640651113</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15014,7 +15014,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>502</v>
@@ -15046,25 +15046,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003015722334710537</v>
+        <v>0.0002690268444450094</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>503</v>
@@ -15096,25 +15096,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003015722334710537</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E233">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F233">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>504</v>
@@ -15146,25 +15146,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002651673800624376</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F234">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>505</v>
@@ -15196,7 +15196,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002477661258728993</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -15214,7 +15214,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>506</v>
@@ -15246,7 +15246,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002477661258728993</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15264,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>507</v>
@@ -15296,7 +15296,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002477661258728993</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15314,7 +15314,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>508</v>
@@ -15346,7 +15346,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002477661258728993</v>
+        <v>0.0002513723180741765</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15364,7 +15364,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>509</v>
@@ -15396,25 +15396,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002477661258728993</v>
+        <v>0.000211429636899618</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>510</v>
@@ -15446,25 +15446,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002477661258728993</v>
+        <v>0.000211429636899618</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>511</v>
@@ -15496,25 +15496,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002083964631852344</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E241">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F241">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>512</v>
@@ -15546,25 +15546,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002083964631852344</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>513</v>
@@ -15596,7 +15596,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15614,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>514</v>
@@ -15646,7 +15646,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15664,7 +15664,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>515</v>
@@ -15696,7 +15696,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>516</v>
@@ -15746,7 +15746,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>517</v>
@@ -15796,7 +15796,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>518</v>
@@ -15846,7 +15846,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15864,7 +15864,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>519</v>
@@ -15896,7 +15896,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001875016525916201</v>
+        <v>0.0001902307060282846</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15914,7 +15914,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>520</v>
@@ -15946,25 +15946,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001875016525916201</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>521</v>
@@ -15996,25 +15996,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001875016525916201</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F251">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>522</v>
@@ -16046,7 +16046,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>523</v>
@@ -16096,7 +16096,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16114,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>524</v>
@@ -16146,7 +16146,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16164,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>525</v>
@@ -16196,7 +16196,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16214,7 +16214,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>526</v>
@@ -16246,7 +16246,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16264,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>527</v>
@@ -16296,7 +16296,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>528</v>
@@ -16346,7 +16346,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16364,7 +16364,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>529</v>
@@ -16396,7 +16396,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001203177541181615</v>
+        <v>0.0001220689577786598</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16414,7 +16414,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>530</v>
@@ -16446,25 +16446,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001203177541181615</v>
+        <v>0.0001214402451202309</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E260">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F260">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>531</v>
@@ -16496,25 +16496,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001203177541181615</v>
+        <v>7.026581939320007E-05</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E261">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F261">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>532</v>
@@ -16546,25 +16546,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001196980609838515</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E262">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F262">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>533</v>
@@ -16596,25 +16596,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>6.925778457117431E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
         <v>3</v>
       </c>
       <c r="E263">
+        <v>0.67</v>
+      </c>
+      <c r="F263">
         <v>0.33</v>
       </c>
-      <c r="F263">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>534</v>
@@ -16646,7 +16646,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16664,7 +16664,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>535</v>
@@ -16696,7 +16696,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16714,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>536</v>
@@ -16746,7 +16746,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16764,7 +16764,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>537</v>
@@ -16796,7 +16796,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16814,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>538</v>
@@ -16846,7 +16846,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16864,7 +16864,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>539</v>
@@ -16896,7 +16896,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16914,7 +16914,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>540</v>
@@ -16946,7 +16946,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16964,7 +16964,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>541</v>
@@ -16996,7 +16996,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17014,7 +17014,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>542</v>
@@ -17046,7 +17046,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17064,7 +17064,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>543</v>
@@ -17096,7 +17096,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>544</v>
@@ -17146,7 +17146,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17164,10 +17164,10 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K274">
         <v>0.0009429406547594457</v>
@@ -17196,7 +17196,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17214,10 +17214,10 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K275">
         <v>0.0008925851396189115</v>
@@ -17246,7 +17246,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17264,10 +17264,10 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K276">
         <v>0.0008418147257254189</v>
@@ -17296,7 +17296,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17314,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>545</v>
@@ -17346,7 +17346,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17364,7 +17364,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>546</v>
@@ -17396,7 +17396,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17414,7 +17414,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>547</v>
@@ -17446,7 +17446,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17464,7 +17464,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>548</v>
@@ -17496,7 +17496,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>4.897264912023362E-05</v>
+        <v>4.968543737856022E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17514,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>549</v>
@@ -17546,25 +17546,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>4.897264912023362E-05</v>
+        <v>1.500807962077523E-05</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F282">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>550</v>
@@ -17596,25 +17596,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>4.897264912023362E-05</v>
+        <v>0</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>551</v>
@@ -17646,25 +17646,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>1.479277341641976E-05</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E284">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F284">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>552</v>
@@ -17714,7 +17714,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>553</v>
@@ -17749,10 +17749,10 @@
         <v>0</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E286">
         <v>0.5</v>
@@ -17764,7 +17764,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>554</v>
@@ -17814,7 +17814,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>555</v>
@@ -17849,10 +17849,10 @@
         <v>0</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E288">
         <v>0.5</v>
@@ -17864,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>556</v>
@@ -17914,7 +17914,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>557</v>
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>558</v>
@@ -18014,7 +18014,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>559</v>
@@ -18064,7 +18064,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>560</v>
@@ -18099,10 +18099,10 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E293">
         <v>0.5</v>
@@ -18114,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>561</v>
@@ -18164,7 +18164,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>562</v>
@@ -18199,10 +18199,10 @@
         <v>0</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E295">
         <v>0.5</v>
@@ -18214,7 +18214,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>563</v>
@@ -18264,7 +18264,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>564</v>
@@ -18314,7 +18314,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>565</v>
@@ -18364,7 +18364,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>566</v>
@@ -18392,30 +18392,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>2</v>
-      </c>
-      <c r="E299">
-        <v>0.5</v>
-      </c>
-      <c r="F299">
-        <v>0.5</v>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299">
-        <v>13</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>567</v>
       </c>
@@ -18442,30 +18418,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>2</v>
-      </c>
-      <c r="E300">
-        <v>0.5</v>
-      </c>
-      <c r="F300">
-        <v>0.5</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>13</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>568</v>
       </c>
@@ -21379,7 +21331,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K412">
         <v>0.0007954963755917681</v>
@@ -21405,7 +21357,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K413">
         <v>0.0007549229623690766</v>
@@ -21431,7 +21383,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K414">
         <v>0.0007391033186009784</v>
@@ -21457,7 +21409,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K415">
         <v>0.0007138557142920913</v>
@@ -21483,7 +21435,7 @@
     </row>
     <row r="416" spans="10:17">
       <c r="J416" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K416">
         <v>0.0007138557142920913</v>
@@ -21509,7 +21461,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K417">
         <v>0.0006722815716389374</v>
@@ -21535,7 +21487,7 @@
     </row>
     <row r="418" spans="10:17">
       <c r="J418" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K418">
         <v>0.0006455494695150719</v>
@@ -21561,7 +21513,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K419">
         <v>0.0006139910230145741</v>
@@ -21587,7 +21539,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K420">
         <v>0.000587566155580575</v>
@@ -21613,7 +21565,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K421">
         <v>0.0005820495143992129</v>
@@ -31363,7 +31315,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K796">
         <v>0.0005444070408552079</v>
@@ -31389,7 +31341,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K797">
         <v>0.0005444070408552079</v>
@@ -31415,7 +31367,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K798">
         <v>0.0005444070408552079</v>
@@ -31441,7 +31393,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K799">
         <v>0.0005444070408552079</v>
@@ -31467,7 +31419,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K800">
         <v>0.000518256487793073</v>
@@ -31493,7 +31445,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K801">
         <v>0.0005024890116192361</v>
@@ -31519,7 +31471,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K802">
         <v>0.0005007079596751843</v>
@@ -31545,7 +31497,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K803">
         <v>0.0005007079596751843</v>
@@ -31571,7 +31523,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K804">
         <v>0.0004860194571431643</v>
@@ -31597,7 +31549,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K805">
         <v>0.0004564724074854858</v>
@@ -31623,7 +31575,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K806">
         <v>0.0004117141289089543</v>
@@ -31649,7 +31601,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K807">
         <v>0.0004117141289089543</v>
@@ -31675,7 +31627,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K808">
         <v>0.0004117141289089543</v>
@@ -31701,7 +31653,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K809">
         <v>0.0004117141289089543</v>
@@ -31727,7 +31679,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K810">
         <v>0.0003664626769124047</v>
@@ -31753,7 +31705,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K811">
         <v>0.0003664626769124047</v>
@@ -31779,7 +31731,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K812">
         <v>0.0003664626769124047</v>
@@ -31805,7 +31757,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K813">
         <v>0.0003664626769124047</v>
@@ -31831,7 +31783,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K814">
         <v>0.0003664626769124047</v>
@@ -31857,7 +31809,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K815">
         <v>0.000355865915501561</v>
@@ -31883,7 +31835,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K816">
         <v>0.0002904936379251842</v>
@@ -31909,7 +31861,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K817">
         <v>0.0002904936379251842</v>
@@ -31935,7 +31887,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K818">
         <v>0.0002747366346753406</v>
@@ -31961,7 +31913,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K819">
         <v>0.0002747366346753406</v>
@@ -31987,7 +31939,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K820">
         <v>0.0002747366346753406</v>
@@ -32013,7 +31965,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K821">
         <v>0.0002579137164330645</v>
@@ -32039,7 +31991,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K822">
         <v>0.0002285139063020489</v>
@@ -32065,7 +32017,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K823">
         <v>0.0002285139063020489</v>
@@ -32091,7 +32043,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K824">
         <v>0.0002285139063020489</v>
@@ -32117,7 +32069,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K825">
         <v>0.0002285139063020489</v>
@@ -32143,7 +32095,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K826">
         <v>0.0002285139063020489</v>
@@ -32169,7 +32121,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K827">
         <v>0.0002255196075111775</v>
@@ -32195,7 +32147,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K828">
         <v>0.0002110201394715383</v>
@@ -32221,7 +32173,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K829">
         <v>0.0001934347044344193</v>
@@ -32247,7 +32199,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K830">
         <v>0.0001876640505422621</v>
@@ -32273,7 +32225,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K831">
         <v>0.0001823725378508442</v>
@@ -32299,7 +32251,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K832">
         <v>0.0001823725378508442</v>
@@ -32325,7 +32277,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K833">
         <v>0.0001823725378508442</v>
@@ -32351,7 +32303,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K834">
         <v>0.0001823725378508442</v>
@@ -32377,7 +32329,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K835">
         <v>0.0001367789912223934</v>
@@ -32403,7 +32355,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K836">
         <v>0.0001367789912223934</v>
@@ -32429,7 +32381,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K837">
         <v>0.0001367789912223934</v>
@@ -32455,7 +32407,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K838">
         <v>0.0001367789912223934</v>
@@ -32481,7 +32433,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K839">
         <v>0.0001367789912223934</v>
@@ -32507,7 +32459,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K840">
         <v>0.0001367789912223934</v>
@@ -32533,7 +32485,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K841">
         <v>0.0001309310218666639</v>
@@ -32559,7 +32511,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K842">
         <v>9.25822134296022E-05</v>
@@ -32585,7 +32537,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K843">
         <v>9.25822134296022E-05</v>
@@ -32611,7 +32563,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K844">
         <v>9.25822134296022E-05</v>
@@ -32637,7 +32589,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K845">
         <v>9.25822134296022E-05</v>
@@ -32663,7 +32615,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K846">
         <v>9.25822134296022E-05</v>
@@ -32689,7 +32641,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K847">
         <v>9.25822134296022E-05</v>
@@ -32715,7 +32667,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K848">
         <v>9.25822134296022E-05</v>
@@ -32741,7 +32693,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K849">
         <v>9.25822134296022E-05</v>
@@ -32767,7 +32719,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K850">
         <v>9.25822134296022E-05</v>
@@ -32793,7 +32745,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K851">
         <v>5.144969541844959E-05</v>
@@ -32819,7 +32771,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K852">
         <v>5.144969541844959E-05</v>
@@ -32845,7 +32797,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K853">
         <v>5.144969541844959E-05</v>
@@ -32871,7 +32823,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K854">
         <v>5.144969541844959E-05</v>
@@ -32897,7 +32849,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K855">
         <v>5.144969541844959E-05</v>
@@ -32923,7 +32875,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K856">
         <v>5.144969541844959E-05</v>
@@ -32949,7 +32901,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K857">
         <v>5.144969541844959E-05</v>
@@ -32975,7 +32927,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K858">
         <v>5.144969541844959E-05</v>
@@ -33001,7 +32953,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K859">
         <v>5.144969541844959E-05</v>
@@ -33027,7 +32979,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K860">
         <v>5.144969541844959E-05</v>
@@ -33053,7 +33005,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K861">
         <v>4.672502943292174E-05</v>
@@ -33079,7 +33031,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K862">
         <v>2.970449549956626E-05</v>
@@ -33105,7 +33057,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K863">
         <v>2.970449549956626E-05</v>
@@ -33131,7 +33083,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K864">
         <v>1.709861994335413E-05</v>
@@ -33157,7 +33109,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K865">
         <v>1.709861994335413E-05</v>
@@ -33183,7 +33135,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K866">
         <v>1.709861994335413E-05</v>
@@ -33209,7 +33161,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K867">
         <v>1.709861994335413E-05</v>
@@ -33235,7 +33187,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K868">
         <v>1.709861994335413E-05</v>
@@ -33261,7 +33213,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K869">
         <v>1.709861994335413E-05</v>
@@ -33287,7 +33239,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K870">
         <v>1.709861994335413E-05</v>
@@ -33313,7 +33265,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K871">
         <v>1.709861994335413E-05</v>
@@ -33339,7 +33291,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K872">
         <v>1.709861994335413E-05</v>
@@ -33365,7 +33317,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K873">
         <v>1.709861994335413E-05</v>
@@ -33391,7 +33343,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K874">
         <v>1.709861994335413E-05</v>
@@ -33417,7 +33369,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K875">
         <v>1.709861994335413E-05</v>
@@ -33443,7 +33395,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K876">
         <v>1.709861994335413E-05</v>
@@ -33469,7 +33421,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K877">
         <v>1.709861994335413E-05</v>
@@ -33495,7 +33447,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K878">
         <v>1.709861994335413E-05</v>
@@ -33521,7 +33473,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K879">
         <v>1.709861994335413E-05</v>
@@ -33547,7 +33499,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K880">
         <v>1.709861994335413E-05</v>
@@ -33573,7 +33525,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K881">
         <v>1.709861994335413E-05</v>
@@ -33599,7 +33551,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K882">
         <v>1.709861994335413E-05</v>
@@ -33625,7 +33577,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K883">
         <v>1.709861994335413E-05</v>
@@ -33651,7 +33603,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K884">
         <v>1.209055011087706E-05</v>
@@ -33677,7 +33629,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K885">
         <v>4.217076092923596E-06</v>
@@ -33703,7 +33655,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K886">
         <v>0</v>
@@ -33729,7 +33681,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K887">
         <v>0</v>
@@ -33755,7 +33707,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K888">
         <v>0</v>
@@ -33781,7 +33733,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K889">
         <v>0</v>
@@ -33807,7 +33759,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -33833,7 +33785,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K891">
         <v>0</v>
@@ -33859,7 +33811,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K892">
         <v>0</v>
@@ -33885,7 +33837,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K893">
         <v>0</v>
@@ -33911,7 +33863,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K894">
         <v>0</v>
@@ -33937,7 +33889,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K895">
         <v>0</v>
@@ -33963,7 +33915,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K896">
         <v>0</v>
@@ -33989,7 +33941,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K897">
         <v>0</v>
@@ -34015,7 +33967,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K898">
         <v>0</v>
@@ -34041,7 +33993,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K899">
         <v>0</v>
@@ -34067,7 +34019,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K900">
         <v>0</v>
@@ -34093,7 +34045,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K901">
         <v>0</v>
